--- a/biology/Histoire de la zoologie et de la botanique/Georg_Wilhelm_Freyreiss/Georg_Wilhelm_Freyreiss.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Wilhelm_Freyreiss/Georg_Wilhelm_Freyreiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Wilhelm Freyreiss est un naturaliste allemand, né en 1789 et mort en 1825.
 En 1816 Freyreiss propose ses services au musée de zoologie de Berlin (l'actuel musée d'histoire naturelle de Berlin) pour aller récolter des spécimens d’histoire naturelle en Amérique du Sud. De 1817 à 1825, il fait parvenir des milliers de peaux d’oiseaux. Ses frais, représentant la somme de 24 700 thalers, sont couverts par la revente des doubles. L’exemple de Freyreiss suscitera de nombreux émules durant les années suivantes.
